--- a/misc/Gain-Calc.xlsx
+++ b/misc/Gain-Calc.xlsx
@@ -149,6 +149,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -158,10 +162,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -237,7 +237,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1151,7 +1151,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>Spec Formula</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1600,7 +1600,391 @@
               <c:f>Sheet1!$C$3:$C$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="0"/>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.30909090909091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.30909090909091</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.61818181818182</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.61818181818182</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.92727272727273</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.92727272727273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.92727272727273</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.23636363636364</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.23636363636364</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.5454545454545</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.5454545454545</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.8545454545455</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.8545454545455</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.8545454545455</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.1636363636364</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.1636363636364</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.4727272727273</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.4727272727273</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20.7818181818182</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.7818181818182</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20.7818181818182</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23.0909090909091</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23.0909090909091</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27.7090909090909</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27.7090909090909</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27.7090909090909</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30.0181818181818</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30.0181818181818</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32.3272727272727</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32.3272727272727</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>34.6363636363636</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>34.6363636363636</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>36.9454545454545</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>36.9454545454545</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>36.9454545454545</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>39.2545454545455</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>39.2545454545455</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41.5636363636364</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41.5636363636364</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43.8727272727273</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43.8727272727273</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43.8727272727273</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>46.1818181818182</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>46.1818181818182</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>48.4909090909091</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>48.4909090909091</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>53.1090909090909</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>53.1090909090909</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>55.4181818181818</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>55.4181818181818</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>57.7272727272727</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>57.7272727272727</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>57.7272727272727</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>60.0363636363636</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>60.0363636363636</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>62.3454545454545</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>62.3454545454545</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>64.6545454545454</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>64.6545454545454</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>66.9636363636364</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>66.9636363636364</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>66.9636363636364</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>69.2727272727273</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>69.2727272727273</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>71.5818181818182</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>71.5818181818182</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>73.8909090909091</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>73.8909090909091</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>73.8909090909091</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>76.2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>76.2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>78.5090909090909</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>78.5090909090909</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>80.8181818181818</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>80.8181818181818</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>80.8181818181818</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>83.1272727272727</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>83.1272727272727</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>85.4363636363636</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>85.4363636363636</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>87.7454545454546</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>87.7454545454546</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>87.7454545454546</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>90.0545454545455</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>90.0545454545455</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>92.3636363636364</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>92.3636363636364</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>94.6727272727273</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>94.6727272727273</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>96.9818181818182</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>96.9818181818182</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>96.9818181818182</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>99.2909090909091</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>99.2909090909091</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>101.6</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>101.6</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>103.909090909091</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>103.909090909091</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>103.909090909091</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>106.218181818182</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>106.218181818182</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>108.527272727273</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>108.527272727273</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>110.836363636364</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>110.836363636364</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>110.836363636364</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>113.145454545455</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>113.145454545455</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>115.454545454545</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>115.454545454545</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>117.763636363636</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>117.763636363636</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>117.763636363636</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>120.072727272727</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>120.072727272727</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>122.381818181818</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>122.381818181818</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>124.690909090909</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>124.690909090909</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1615,7 +1999,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>impr.  Formula</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2064,17 +2448,401 @@
               <c:f>Sheet1!$D$3:$D$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="0"/>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="11950395"/>
-        <c:axId val="51983285"/>
+        <c:axId val="21248699"/>
+        <c:axId val="92531724"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="11950395"/>
+        <c:axId val="21248699"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2102,12 +2870,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51983285"/>
+        <c:crossAx val="92531724"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51983285"/>
+        <c:axId val="92531724"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2144,7 +2912,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11950395"/>
+        <c:crossAx val="21248699"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2203,9 +2971,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>440280</xdr:colOff>
+      <xdr:colOff>439920</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2213,8 +2981,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3986280" y="240120"/>
-        <a:ext cx="7430040" cy="3238920"/>
+        <a:off x="6300720" y="240120"/>
+        <a:ext cx="7429680" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2235,60 +3003,61 @@
   <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="7:7"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="1" width="16.12"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="1" width="16.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.72"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A3 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-29</v>
+        <f aca="false">ABS((A3-5)/55)*127</f>
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A3) - 82.622)</f>
-        <v>-39</v>
-      </c>
-      <c r="E3" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A3 - 10.37625083)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="str">
         <f aca="false">DEC2HEX(B3,2)</f>
         <v>00</v>
       </c>
@@ -2301,14 +3070,14 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A4 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-29</v>
+        <f aca="false">ABS((A4-5)/55)*127</f>
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A4) - 82.622)</f>
-        <v>-39</v>
-      </c>
-      <c r="E4" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A4 - 10.37625083)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="str">
         <f aca="false">DEC2HEX(B4,2)</f>
         <v>01</v>
       </c>
@@ -2321,14 +3090,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A5 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-29</v>
+        <f aca="false">ABS((A5-5)/55)*127</f>
+        <v>0</v>
       </c>
       <c r="D5" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A5) - 82.622)</f>
-        <v>-39</v>
-      </c>
-      <c r="E5" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A5 - 10.37625083)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="str">
         <f aca="false">DEC2HEX(B5,2)</f>
         <v>02</v>
       </c>
@@ -2341,14 +3110,14 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A6 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-25</v>
+        <f aca="false">ABS((A6-5)/55)*127</f>
+        <v>2.30909090909091</v>
       </c>
       <c r="D6" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A6) - 82.622)</f>
-        <v>-34</v>
-      </c>
-      <c r="E6" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A6 - 10.37625083)</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="str">
         <f aca="false">DEC2HEX(B6,2)</f>
         <v>03</v>
       </c>
@@ -2361,14 +3130,14 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A7 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-25</v>
+        <f aca="false">ABS((A7-5)/55)*127</f>
+        <v>2.30909090909091</v>
       </c>
       <c r="D7" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A7) - 82.622)</f>
-        <v>-34</v>
-      </c>
-      <c r="E7" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A7 - 10.37625083)</f>
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="str">
         <f aca="false">DEC2HEX(B7,2)</f>
         <v>04</v>
       </c>
@@ -2381,14 +3150,14 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A8 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-22</v>
+        <f aca="false">ABS((A8-5)/55)*127</f>
+        <v>4.61818181818182</v>
       </c>
       <c r="D8" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A8) - 82.622)</f>
-        <v>-29</v>
-      </c>
-      <c r="E8" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A8 - 10.37625083)</f>
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="str">
         <f aca="false">DEC2HEX(B8,2)</f>
         <v>05</v>
       </c>
@@ -2401,14 +3170,14 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A9 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-22</v>
+        <f aca="false">ABS((A9-5)/55)*127</f>
+        <v>4.61818181818182</v>
       </c>
       <c r="D9" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A9) - 82.622)</f>
-        <v>-29</v>
-      </c>
-      <c r="E9" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A9 - 10.37625083)</f>
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="str">
         <f aca="false">DEC2HEX(B9,2)</f>
         <v>06</v>
       </c>
@@ -2421,14 +3190,14 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A10 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-19</v>
+        <f aca="false">ABS((A10-5)/55)*127</f>
+        <v>6.92727272727273</v>
       </c>
       <c r="D10" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A10) - 82.622)</f>
-        <v>-26</v>
-      </c>
-      <c r="E10" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A10 - 10.37625083)</f>
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="str">
         <f aca="false">DEC2HEX(B10,2)</f>
         <v>07</v>
       </c>
@@ -2441,14 +3210,14 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A11 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-19</v>
+        <f aca="false">ABS((A11-5)/55)*127</f>
+        <v>6.92727272727273</v>
       </c>
       <c r="D11" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A11) - 82.622)</f>
-        <v>-26</v>
-      </c>
-      <c r="E11" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A11 - 10.37625083)</f>
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="str">
         <f aca="false">DEC2HEX(B11,2)</f>
         <v>08</v>
       </c>
@@ -2461,14 +3230,14 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A12 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-19</v>
+        <f aca="false">ABS((A12-5)/55)*127</f>
+        <v>6.92727272727273</v>
       </c>
       <c r="D12" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A12) - 82.622)</f>
-        <v>-26</v>
-      </c>
-      <c r="E12" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A12 - 10.37625083)</f>
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="str">
         <f aca="false">DEC2HEX(B12,2)</f>
         <v>09</v>
       </c>
@@ -2481,14 +3250,14 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A13 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-17</v>
+        <f aca="false">ABS((A13-5)/55)*127</f>
+        <v>9.23636363636364</v>
       </c>
       <c r="D13" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A13) - 82.622)</f>
-        <v>-23</v>
-      </c>
-      <c r="E13" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A13 - 10.37625083)</f>
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="str">
         <f aca="false">DEC2HEX(B13,2)</f>
         <v>0A</v>
       </c>
@@ -2501,34 +3270,34 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A14 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-17</v>
+        <f aca="false">ABS((A14-5)/55)*127</f>
+        <v>9.23636363636364</v>
       </c>
       <c r="D14" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A14) - 82.622)</f>
-        <v>-23</v>
-      </c>
-      <c r="E14" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A14 - 10.37625083)</f>
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="str">
         <f aca="false">DEC2HEX(B14,2)</f>
         <v>0B</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="5" t="n">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>12</v>
       </c>
       <c r="C15" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A15 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-15</v>
+        <f aca="false">ABS((A15-5)/55)*127</f>
+        <v>11.5454545454545</v>
       </c>
       <c r="D15" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A15) - 82.622)</f>
-        <v>-20</v>
-      </c>
-      <c r="E15" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A15 - 10.37625083)</f>
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="str">
         <f aca="false">DEC2HEX(B15,2)</f>
         <v>0C</v>
       </c>
@@ -2541,14 +3310,14 @@
         <v>13</v>
       </c>
       <c r="C16" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A16 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-15</v>
+        <f aca="false">ABS((A16-5)/55)*127</f>
+        <v>11.5454545454545</v>
       </c>
       <c r="D16" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A16) - 82.622)</f>
-        <v>-20</v>
-      </c>
-      <c r="E16" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A16 - 10.37625083)</f>
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="str">
         <f aca="false">DEC2HEX(B16,2)</f>
         <v>0D</v>
       </c>
@@ -2561,14 +3330,14 @@
         <v>14</v>
       </c>
       <c r="C17" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A17 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-13</v>
+        <f aca="false">ABS((A17-5)/55)*127</f>
+        <v>13.8545454545455</v>
       </c>
       <c r="D17" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A17) - 82.622)</f>
-        <v>-17</v>
-      </c>
-      <c r="E17" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A17 - 10.37625083)</f>
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="str">
         <f aca="false">DEC2HEX(B17,2)</f>
         <v>0E</v>
       </c>
@@ -2581,14 +3350,14 @@
         <v>15</v>
       </c>
       <c r="C18" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A18 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-13</v>
+        <f aca="false">ABS((A18-5)/55)*127</f>
+        <v>13.8545454545455</v>
       </c>
       <c r="D18" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A18) - 82.622)</f>
-        <v>-17</v>
-      </c>
-      <c r="E18" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A18 - 10.37625083)</f>
+        <v>15</v>
+      </c>
+      <c r="E18" s="1" t="str">
         <f aca="false">DEC2HEX(B18,2)</f>
         <v>0F</v>
       </c>
@@ -2601,14 +3370,14 @@
         <v>16</v>
       </c>
       <c r="C19" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A19 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-13</v>
+        <f aca="false">ABS((A19-5)/55)*127</f>
+        <v>13.8545454545455</v>
       </c>
       <c r="D19" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A19) - 82.622)</f>
-        <v>-17</v>
-      </c>
-      <c r="E19" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A19 - 10.37625083)</f>
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="str">
         <f aca="false">DEC2HEX(B19,2)</f>
         <v>10</v>
       </c>
@@ -2621,14 +3390,14 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A20 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-11</v>
+        <f aca="false">ABS((A20-5)/55)*127</f>
+        <v>16.1636363636364</v>
       </c>
       <c r="D20" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A20) - 82.622)</f>
-        <v>-15</v>
-      </c>
-      <c r="E20" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A20 - 10.37625083)</f>
+        <v>17</v>
+      </c>
+      <c r="E20" s="1" t="str">
         <f aca="false">DEC2HEX(B20,2)</f>
         <v>11</v>
       </c>
@@ -2641,14 +3410,14 @@
         <v>18</v>
       </c>
       <c r="C21" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A21 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-11</v>
+        <f aca="false">ABS((A21-5)/55)*127</f>
+        <v>16.1636363636364</v>
       </c>
       <c r="D21" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A21) - 82.622)</f>
-        <v>-15</v>
-      </c>
-      <c r="E21" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A21 - 10.37625083)</f>
+        <v>17</v>
+      </c>
+      <c r="E21" s="1" t="str">
         <f aca="false">DEC2HEX(B21,2)</f>
         <v>12</v>
       </c>
@@ -2661,14 +3430,14 @@
         <v>19</v>
       </c>
       <c r="C22" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A22 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-9</v>
+        <f aca="false">ABS((A22-5)/55)*127</f>
+        <v>18.4727272727273</v>
       </c>
       <c r="D22" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A22) - 82.622)</f>
-        <v>-12</v>
-      </c>
-      <c r="E22" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A22 - 10.37625083)</f>
+        <v>19</v>
+      </c>
+      <c r="E22" s="1" t="str">
         <f aca="false">DEC2HEX(B22,2)</f>
         <v>13</v>
       </c>
@@ -2681,14 +3450,14 @@
         <v>20</v>
       </c>
       <c r="C23" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A23 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-9</v>
+        <f aca="false">ABS((A23-5)/55)*127</f>
+        <v>18.4727272727273</v>
       </c>
       <c r="D23" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A23) - 82.622)</f>
-        <v>-12</v>
-      </c>
-      <c r="E23" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A23 - 10.37625083)</f>
+        <v>19</v>
+      </c>
+      <c r="E23" s="1" t="str">
         <f aca="false">DEC2HEX(B23,2)</f>
         <v>14</v>
       </c>
@@ -2701,14 +3470,14 @@
         <v>21</v>
       </c>
       <c r="C24" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A24 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-8</v>
+        <f aca="false">ABS((A24-5)/55)*127</f>
+        <v>20.7818181818182</v>
       </c>
       <c r="D24" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A24) - 82.622)</f>
-        <v>-10</v>
-      </c>
-      <c r="E24" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A24 - 10.37625083)</f>
+        <v>21</v>
+      </c>
+      <c r="E24" s="1" t="str">
         <f aca="false">DEC2HEX(B24,2)</f>
         <v>15</v>
       </c>
@@ -2721,14 +3490,14 @@
         <v>22</v>
       </c>
       <c r="C25" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A25 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-8</v>
+        <f aca="false">ABS((A25-5)/55)*127</f>
+        <v>20.7818181818182</v>
       </c>
       <c r="D25" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A25) - 82.622)</f>
-        <v>-10</v>
-      </c>
-      <c r="E25" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A25 - 10.37625083)</f>
+        <v>21</v>
+      </c>
+      <c r="E25" s="1" t="str">
         <f aca="false">DEC2HEX(B25,2)</f>
         <v>16</v>
       </c>
@@ -2741,34 +3510,34 @@
         <v>23</v>
       </c>
       <c r="C26" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A26 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-8</v>
+        <f aca="false">ABS((A26-5)/55)*127</f>
+        <v>20.7818181818182</v>
       </c>
       <c r="D26" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A26) - 82.622)</f>
-        <v>-10</v>
-      </c>
-      <c r="E26" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A26 - 10.37625083)</f>
+        <v>21</v>
+      </c>
+      <c r="E26" s="1" t="str">
         <f aca="false">DEC2HEX(B26,2)</f>
         <v>17</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+      <c r="A27" s="5" t="n">
         <v>15</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>24</v>
       </c>
       <c r="C27" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A27 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-6</v>
+        <f aca="false">ABS((A27-5)/55)*127</f>
+        <v>23.0909090909091</v>
       </c>
       <c r="D27" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A27) - 82.622)</f>
-        <v>-8</v>
-      </c>
-      <c r="E27" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A27 - 10.37625083)</f>
+        <v>24</v>
+      </c>
+      <c r="E27" s="1" t="str">
         <f aca="false">DEC2HEX(B27,2)</f>
         <v>18</v>
       </c>
@@ -2781,14 +3550,14 @@
         <v>25</v>
       </c>
       <c r="C28" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A28 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-6</v>
+        <f aca="false">ABS((A28-5)/55)*127</f>
+        <v>23.0909090909091</v>
       </c>
       <c r="D28" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A28) - 82.622)</f>
-        <v>-8</v>
-      </c>
-      <c r="E28" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A28 - 10.37625083)</f>
+        <v>24</v>
+      </c>
+      <c r="E28" s="1" t="str">
         <f aca="false">DEC2HEX(B28,2)</f>
         <v>19</v>
       </c>
@@ -2801,14 +3570,14 @@
         <v>26</v>
       </c>
       <c r="C29" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A29 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-5</v>
+        <f aca="false">ABS((A29-5)/55)*127</f>
+        <v>25.4</v>
       </c>
       <c r="D29" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A29) - 82.622)</f>
-        <v>-7</v>
-      </c>
-      <c r="E29" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A29 - 10.37625083)</f>
+        <v>26</v>
+      </c>
+      <c r="E29" s="1" t="str">
         <f aca="false">DEC2HEX(B29,2)</f>
         <v>1A</v>
       </c>
@@ -2821,14 +3590,14 @@
         <v>27</v>
       </c>
       <c r="C30" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A30 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-5</v>
+        <f aca="false">ABS((A30-5)/55)*127</f>
+        <v>25.4</v>
       </c>
       <c r="D30" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A30) - 82.622)</f>
-        <v>-7</v>
-      </c>
-      <c r="E30" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A30 - 10.37625083)</f>
+        <v>26</v>
+      </c>
+      <c r="E30" s="1" t="str">
         <f aca="false">DEC2HEX(B30,2)</f>
         <v>1B</v>
       </c>
@@ -2841,14 +3610,14 @@
         <v>28</v>
       </c>
       <c r="C31" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A31 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-4</v>
+        <f aca="false">ABS((A31-5)/55)*127</f>
+        <v>27.7090909090909</v>
       </c>
       <c r="D31" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A31) - 82.622)</f>
-        <v>-5</v>
-      </c>
-      <c r="E31" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A31 - 10.37625083)</f>
+        <v>28</v>
+      </c>
+      <c r="E31" s="1" t="str">
         <f aca="false">DEC2HEX(B31,2)</f>
         <v>1C</v>
       </c>
@@ -2861,14 +3630,14 @@
         <v>29</v>
       </c>
       <c r="C32" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A32 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-4</v>
+        <f aca="false">ABS((A32-5)/55)*127</f>
+        <v>27.7090909090909</v>
       </c>
       <c r="D32" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A32) - 82.622)</f>
-        <v>-5</v>
-      </c>
-      <c r="E32" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A32 - 10.37625083)</f>
+        <v>28</v>
+      </c>
+      <c r="E32" s="1" t="str">
         <f aca="false">DEC2HEX(B32,2)</f>
         <v>1D</v>
       </c>
@@ -2881,14 +3650,14 @@
         <v>30</v>
       </c>
       <c r="C33" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A33 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-4</v>
+        <f aca="false">ABS((A33-5)/55)*127</f>
+        <v>27.7090909090909</v>
       </c>
       <c r="D33" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A33) - 82.622)</f>
-        <v>-5</v>
-      </c>
-      <c r="E33" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A33 - 10.37625083)</f>
+        <v>28</v>
+      </c>
+      <c r="E33" s="1" t="str">
         <f aca="false">DEC2HEX(B33,2)</f>
         <v>1E</v>
       </c>
@@ -2901,14 +3670,14 @@
         <v>31</v>
       </c>
       <c r="C34" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A34 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-3</v>
+        <f aca="false">ABS((A34-5)/55)*127</f>
+        <v>30.0181818181818</v>
       </c>
       <c r="D34" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A34) - 82.622)</f>
-        <v>-3</v>
-      </c>
-      <c r="E34" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A34 - 10.37625083)</f>
+        <v>31</v>
+      </c>
+      <c r="E34" s="1" t="str">
         <f aca="false">DEC2HEX(B34,2)</f>
         <v>1F</v>
       </c>
@@ -2921,14 +3690,14 @@
         <v>32</v>
       </c>
       <c r="C35" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A35 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-3</v>
+        <f aca="false">ABS((A35-5)/55)*127</f>
+        <v>30.0181818181818</v>
       </c>
       <c r="D35" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A35) - 82.622)</f>
-        <v>-3</v>
-      </c>
-      <c r="E35" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A35 - 10.37625083)</f>
+        <v>31</v>
+      </c>
+      <c r="E35" s="1" t="str">
         <f aca="false">DEC2HEX(B35,2)</f>
         <v>20</v>
       </c>
@@ -2941,14 +3710,14 @@
         <v>33</v>
       </c>
       <c r="C36" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A36 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-2</v>
+        <f aca="false">ABS((A36-5)/55)*127</f>
+        <v>32.3272727272727</v>
       </c>
       <c r="D36" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A36) - 82.622)</f>
-        <v>-2</v>
-      </c>
-      <c r="E36" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A36 - 10.37625083)</f>
+        <v>33</v>
+      </c>
+      <c r="E36" s="1" t="str">
         <f aca="false">DEC2HEX(B36,2)</f>
         <v>21</v>
       </c>
@@ -2961,54 +3730,54 @@
         <v>34</v>
       </c>
       <c r="C37" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A37 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>-2</v>
+        <f aca="false">ABS((A37-5)/55)*127</f>
+        <v>32.3272727272727</v>
       </c>
       <c r="D37" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A37) - 82.622)</f>
-        <v>-2</v>
-      </c>
-      <c r="E37" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A37 - 10.37625083)</f>
+        <v>33</v>
+      </c>
+      <c r="E37" s="1" t="str">
         <f aca="false">DEC2HEX(B37,2)</f>
         <v>22</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
+      <c r="A38" s="5" t="n">
         <v>20</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>35</v>
       </c>
       <c r="C38" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A38 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>0</v>
+        <f aca="false">ABS((A38-5)/55)*127</f>
+        <v>34.6363636363636</v>
       </c>
       <c r="D38" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A38) - 82.622)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A38 - 10.37625083)</f>
+        <v>35</v>
+      </c>
+      <c r="E38" s="1" t="str">
         <f aca="false">DEC2HEX(B38,2)</f>
         <v>23</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="n">
+      <c r="A39" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>36</v>
       </c>
       <c r="C39" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A39 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>0</v>
+        <f aca="false">ABS((A39-5)/55)*127</f>
+        <v>34.6363636363636</v>
       </c>
       <c r="D39" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A39) - 82.622)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A39 - 10.37625083)</f>
+        <v>35</v>
+      </c>
+      <c r="E39" s="1" t="str">
         <f aca="false">DEC2HEX(B39,2)</f>
         <v>24</v>
       </c>
@@ -3021,14 +3790,14 @@
         <v>37</v>
       </c>
       <c r="C40" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A40 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>0</v>
+        <f aca="false">ABS((A40-5)/55)*127</f>
+        <v>36.9454545454545</v>
       </c>
       <c r="D40" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A40) - 82.622)</f>
-        <v>1</v>
-      </c>
-      <c r="E40" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A40 - 10.37625083)</f>
+        <v>38</v>
+      </c>
+      <c r="E40" s="1" t="str">
         <f aca="false">DEC2HEX(B40,2)</f>
         <v>25</v>
       </c>
@@ -3041,14 +3810,14 @@
         <v>38</v>
       </c>
       <c r="C41" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A41 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>0</v>
+        <f aca="false">ABS((A41-5)/55)*127</f>
+        <v>36.9454545454545</v>
       </c>
       <c r="D41" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A41) - 82.622)</f>
-        <v>1</v>
-      </c>
-      <c r="E41" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A41 - 10.37625083)</f>
+        <v>38</v>
+      </c>
+      <c r="E41" s="1" t="str">
         <f aca="false">DEC2HEX(B41,2)</f>
         <v>26</v>
       </c>
@@ -3061,14 +3830,14 @@
         <v>39</v>
       </c>
       <c r="C42" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A42 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>0</v>
+        <f aca="false">ABS((A42-5)/55)*127</f>
+        <v>36.9454545454545</v>
       </c>
       <c r="D42" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A42) - 82.622)</f>
-        <v>1</v>
-      </c>
-      <c r="E42" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A42 - 10.37625083)</f>
+        <v>38</v>
+      </c>
+      <c r="E42" s="1" t="str">
         <f aca="false">DEC2HEX(B42,2)</f>
         <v>27</v>
       </c>
@@ -3081,14 +3850,14 @@
         <v>40</v>
       </c>
       <c r="C43" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A43 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>1</v>
+        <f aca="false">ABS((A43-5)/55)*127</f>
+        <v>39.2545454545455</v>
       </c>
       <c r="D43" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A43) - 82.622)</f>
-        <v>2</v>
-      </c>
-      <c r="E43" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A43 - 10.37625083)</f>
+        <v>40</v>
+      </c>
+      <c r="E43" s="1" t="str">
         <f aca="false">DEC2HEX(B43,2)</f>
         <v>28</v>
       </c>
@@ -3101,14 +3870,14 @@
         <v>41</v>
       </c>
       <c r="C44" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A44 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>1</v>
+        <f aca="false">ABS((A44-5)/55)*127</f>
+        <v>39.2545454545455</v>
       </c>
       <c r="D44" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A44) - 82.622)</f>
-        <v>2</v>
-      </c>
-      <c r="E44" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A44 - 10.37625083)</f>
+        <v>40</v>
+      </c>
+      <c r="E44" s="1" t="str">
         <f aca="false">DEC2HEX(B44,2)</f>
         <v>29</v>
       </c>
@@ -3121,14 +3890,14 @@
         <v>42</v>
       </c>
       <c r="C45" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A45 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>2</v>
+        <f aca="false">ABS((A45-5)/55)*127</f>
+        <v>41.5636363636364</v>
       </c>
       <c r="D45" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A45) - 82.622)</f>
-        <v>3</v>
-      </c>
-      <c r="E45" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A45 - 10.37625083)</f>
+        <v>42</v>
+      </c>
+      <c r="E45" s="1" t="str">
         <f aca="false">DEC2HEX(B45,2)</f>
         <v>2A</v>
       </c>
@@ -3141,14 +3910,14 @@
         <v>43</v>
       </c>
       <c r="C46" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A46 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>2</v>
+        <f aca="false">ABS((A46-5)/55)*127</f>
+        <v>41.5636363636364</v>
       </c>
       <c r="D46" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A46) - 82.622)</f>
-        <v>3</v>
-      </c>
-      <c r="E46" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A46 - 10.37625083)</f>
+        <v>42</v>
+      </c>
+      <c r="E46" s="1" t="str">
         <f aca="false">DEC2HEX(B46,2)</f>
         <v>2B</v>
       </c>
@@ -3161,14 +3930,14 @@
         <v>44</v>
       </c>
       <c r="C47" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A47 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>3</v>
+        <f aca="false">ABS((A47-5)/55)*127</f>
+        <v>43.8727272727273</v>
       </c>
       <c r="D47" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A47) - 82.622)</f>
-        <v>5</v>
-      </c>
-      <c r="E47" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A47 - 10.37625083)</f>
+        <v>45</v>
+      </c>
+      <c r="E47" s="1" t="str">
         <f aca="false">DEC2HEX(B47,2)</f>
         <v>2C</v>
       </c>
@@ -3181,14 +3950,14 @@
         <v>45</v>
       </c>
       <c r="C48" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A48 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>3</v>
+        <f aca="false">ABS((A48-5)/55)*127</f>
+        <v>43.8727272727273</v>
       </c>
       <c r="D48" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A48) - 82.622)</f>
-        <v>5</v>
-      </c>
-      <c r="E48" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A48 - 10.37625083)</f>
+        <v>45</v>
+      </c>
+      <c r="E48" s="1" t="str">
         <f aca="false">DEC2HEX(B48,2)</f>
         <v>2D</v>
       </c>
@@ -3201,34 +3970,34 @@
         <v>46</v>
       </c>
       <c r="C49" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A49 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>3</v>
+        <f aca="false">ABS((A49-5)/55)*127</f>
+        <v>43.8727272727273</v>
       </c>
       <c r="D49" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A49) - 82.622)</f>
-        <v>5</v>
-      </c>
-      <c r="E49" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A49 - 10.37625083)</f>
+        <v>45</v>
+      </c>
+      <c r="E49" s="1" t="str">
         <f aca="false">DEC2HEX(B49,2)</f>
         <v>2E</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="n">
+      <c r="A50" s="5" t="n">
         <v>25</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>47</v>
       </c>
       <c r="C50" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A50 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>4</v>
+        <f aca="false">ABS((A50-5)/55)*127</f>
+        <v>46.1818181818182</v>
       </c>
       <c r="D50" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A50) - 82.622)</f>
-        <v>6</v>
-      </c>
-      <c r="E50" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A50 - 10.37625083)</f>
+        <v>47</v>
+      </c>
+      <c r="E50" s="1" t="str">
         <f aca="false">DEC2HEX(B50,2)</f>
         <v>2F</v>
       </c>
@@ -3241,14 +4010,14 @@
         <v>48</v>
       </c>
       <c r="C51" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A51 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>4</v>
+        <f aca="false">ABS((A51-5)/55)*127</f>
+        <v>46.1818181818182</v>
       </c>
       <c r="D51" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A51) - 82.622)</f>
-        <v>6</v>
-      </c>
-      <c r="E51" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A51 - 10.37625083)</f>
+        <v>47</v>
+      </c>
+      <c r="E51" s="1" t="str">
         <f aca="false">DEC2HEX(B51,2)</f>
         <v>30</v>
       </c>
@@ -3261,14 +4030,14 @@
         <v>49</v>
       </c>
       <c r="C52" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A52 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>5</v>
+        <f aca="false">ABS((A52-5)/55)*127</f>
+        <v>48.4909090909091</v>
       </c>
       <c r="D52" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A52) - 82.622)</f>
-        <v>7</v>
-      </c>
-      <c r="E52" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A52 - 10.37625083)</f>
+        <v>49</v>
+      </c>
+      <c r="E52" s="1" t="str">
         <f aca="false">DEC2HEX(B52,2)</f>
         <v>31</v>
       </c>
@@ -3281,14 +4050,14 @@
         <v>50</v>
       </c>
       <c r="C53" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A53 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>5</v>
+        <f aca="false">ABS((A53-5)/55)*127</f>
+        <v>48.4909090909091</v>
       </c>
       <c r="D53" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A53) - 82.622)</f>
-        <v>7</v>
-      </c>
-      <c r="E53" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A53 - 10.37625083)</f>
+        <v>49</v>
+      </c>
+      <c r="E53" s="1" t="str">
         <f aca="false">DEC2HEX(B53,2)</f>
         <v>32</v>
       </c>
@@ -3301,14 +4070,14 @@
         <v>51</v>
       </c>
       <c r="C54" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A54 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>6</v>
+        <f aca="false">ABS((A54-5)/55)*127</f>
+        <v>50.8</v>
       </c>
       <c r="D54" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A54) - 82.622)</f>
-        <v>8</v>
-      </c>
-      <c r="E54" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A54 - 10.37625083)</f>
+        <v>51</v>
+      </c>
+      <c r="E54" s="1" t="str">
         <f aca="false">DEC2HEX(B54,2)</f>
         <v>33</v>
       </c>
@@ -3321,14 +4090,14 @@
         <v>52</v>
       </c>
       <c r="C55" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A55 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>6</v>
+        <f aca="false">ABS((A55-5)/55)*127</f>
+        <v>50.8</v>
       </c>
       <c r="D55" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A55) - 82.622)</f>
-        <v>8</v>
-      </c>
-      <c r="E55" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A55 - 10.37625083)</f>
+        <v>51</v>
+      </c>
+      <c r="E55" s="1" t="str">
         <f aca="false">DEC2HEX(B55,2)</f>
         <v>34</v>
       </c>
@@ -3341,14 +4110,14 @@
         <v>53</v>
       </c>
       <c r="C56" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A56 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>6</v>
+        <f aca="false">ABS((A56-5)/55)*127</f>
+        <v>50.8</v>
       </c>
       <c r="D56" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A56) - 82.622)</f>
-        <v>8</v>
-      </c>
-      <c r="E56" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A56 - 10.37625083)</f>
+        <v>51</v>
+      </c>
+      <c r="E56" s="1" t="str">
         <f aca="false">DEC2HEX(B56,2)</f>
         <v>35</v>
       </c>
@@ -3361,14 +4130,14 @@
         <v>54</v>
       </c>
       <c r="C57" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A57 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>6</v>
+        <f aca="false">ABS((A57-5)/55)*127</f>
+        <v>53.1090909090909</v>
       </c>
       <c r="D57" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A57) - 82.622)</f>
-        <v>9</v>
-      </c>
-      <c r="E57" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A57 - 10.37625083)</f>
+        <v>54</v>
+      </c>
+      <c r="E57" s="1" t="str">
         <f aca="false">DEC2HEX(B57,2)</f>
         <v>36</v>
       </c>
@@ -3381,14 +4150,14 @@
         <v>55</v>
       </c>
       <c r="C58" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A58 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>6</v>
+        <f aca="false">ABS((A58-5)/55)*127</f>
+        <v>53.1090909090909</v>
       </c>
       <c r="D58" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A58) - 82.622)</f>
-        <v>9</v>
-      </c>
-      <c r="E58" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A58 - 10.37625083)</f>
+        <v>54</v>
+      </c>
+      <c r="E58" s="1" t="str">
         <f aca="false">DEC2HEX(B58,2)</f>
         <v>37</v>
       </c>
@@ -3401,14 +4170,14 @@
         <v>56</v>
       </c>
       <c r="C59" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A59 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>7</v>
+        <f aca="false">ABS((A59-5)/55)*127</f>
+        <v>55.4181818181818</v>
       </c>
       <c r="D59" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A59) - 82.622)</f>
-        <v>10</v>
-      </c>
-      <c r="E59" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A59 - 10.37625083)</f>
+        <v>56</v>
+      </c>
+      <c r="E59" s="1" t="str">
         <f aca="false">DEC2HEX(B59,2)</f>
         <v>38</v>
       </c>
@@ -3421,34 +4190,34 @@
         <v>57</v>
       </c>
       <c r="C60" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A60 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>7</v>
+        <f aca="false">ABS((A60-5)/55)*127</f>
+        <v>55.4181818181818</v>
       </c>
       <c r="D60" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A60) - 82.622)</f>
-        <v>10</v>
-      </c>
-      <c r="E60" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A60 - 10.37625083)</f>
+        <v>56</v>
+      </c>
+      <c r="E60" s="1" t="str">
         <f aca="false">DEC2HEX(B60,2)</f>
         <v>39</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="n">
+      <c r="A61" s="5" t="n">
         <v>30</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>58</v>
       </c>
       <c r="C61" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A61 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>8</v>
+        <f aca="false">ABS((A61-5)/55)*127</f>
+        <v>57.7272727272727</v>
       </c>
       <c r="D61" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A61) - 82.622)</f>
-        <v>11</v>
-      </c>
-      <c r="E61" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A61 - 10.37625083)</f>
+        <v>58</v>
+      </c>
+      <c r="E61" s="1" t="str">
         <f aca="false">DEC2HEX(B61,2)</f>
         <v>3A</v>
       </c>
@@ -3461,14 +4230,14 @@
         <v>59</v>
       </c>
       <c r="C62" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A62 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>8</v>
+        <f aca="false">ABS((A62-5)/55)*127</f>
+        <v>57.7272727272727</v>
       </c>
       <c r="D62" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A62) - 82.622)</f>
-        <v>11</v>
-      </c>
-      <c r="E62" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A62 - 10.37625083)</f>
+        <v>58</v>
+      </c>
+      <c r="E62" s="1" t="str">
         <f aca="false">DEC2HEX(B62,2)</f>
         <v>3B</v>
       </c>
@@ -3481,14 +4250,14 @@
         <v>60</v>
       </c>
       <c r="C63" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A63 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>8</v>
+        <f aca="false">ABS((A63-5)/55)*127</f>
+        <v>57.7272727272727</v>
       </c>
       <c r="D63" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A63) - 82.622)</f>
-        <v>11</v>
-      </c>
-      <c r="E63" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A63 - 10.37625083)</f>
+        <v>58</v>
+      </c>
+      <c r="E63" s="1" t="str">
         <f aca="false">DEC2HEX(B63,2)</f>
         <v>3C</v>
       </c>
@@ -3501,14 +4270,14 @@
         <v>61</v>
       </c>
       <c r="C64" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A64 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>8</v>
+        <f aca="false">ABS((A64-5)/55)*127</f>
+        <v>60.0363636363636</v>
       </c>
       <c r="D64" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A64) - 82.622)</f>
-        <v>12</v>
-      </c>
-      <c r="E64" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A64 - 10.37625083)</f>
+        <v>61</v>
+      </c>
+      <c r="E64" s="1" t="str">
         <f aca="false">DEC2HEX(B64,2)</f>
         <v>3D</v>
       </c>
@@ -3521,14 +4290,14 @@
         <v>62</v>
       </c>
       <c r="C65" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A65 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>8</v>
+        <f aca="false">ABS((A65-5)/55)*127</f>
+        <v>60.0363636363636</v>
       </c>
       <c r="D65" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A65) - 82.622)</f>
-        <v>12</v>
-      </c>
-      <c r="E65" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A65 - 10.37625083)</f>
+        <v>61</v>
+      </c>
+      <c r="E65" s="1" t="str">
         <f aca="false">DEC2HEX(B65,2)</f>
         <v>3E</v>
       </c>
@@ -3541,14 +4310,14 @@
         <v>63</v>
       </c>
       <c r="C66" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A66 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>9</v>
+        <f aca="false">ABS((A66-5)/55)*127</f>
+        <v>62.3454545454545</v>
       </c>
       <c r="D66" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A66) - 82.622)</f>
-        <v>12</v>
-      </c>
-      <c r="E66" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A66 - 10.37625083)</f>
+        <v>63</v>
+      </c>
+      <c r="E66" s="1" t="str">
         <f aca="false">DEC2HEX(B66,2)</f>
         <v>3F</v>
       </c>
@@ -3561,14 +4330,14 @@
         <v>64</v>
       </c>
       <c r="C67" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A67 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>9</v>
+        <f aca="false">ABS((A67-5)/55)*127</f>
+        <v>62.3454545454545</v>
       </c>
       <c r="D67" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A67) - 82.622)</f>
-        <v>12</v>
-      </c>
-      <c r="E67" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A67 - 10.37625083)</f>
+        <v>63</v>
+      </c>
+      <c r="E67" s="1" t="str">
         <f aca="false">DEC2HEX(B67,2)</f>
         <v>40</v>
       </c>
@@ -3581,14 +4350,14 @@
         <v>65</v>
       </c>
       <c r="C68" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A68 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>10</v>
+        <f aca="false">ABS((A68-5)/55)*127</f>
+        <v>64.6545454545454</v>
       </c>
       <c r="D68" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A68) - 82.622)</f>
-        <v>13</v>
-      </c>
-      <c r="E68" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A68 - 10.37625083)</f>
+        <v>65</v>
+      </c>
+      <c r="E68" s="1" t="str">
         <f aca="false">DEC2HEX(B68,2)</f>
         <v>41</v>
       </c>
@@ -3601,14 +4370,14 @@
         <v>66</v>
       </c>
       <c r="C69" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A69 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>10</v>
+        <f aca="false">ABS((A69-5)/55)*127</f>
+        <v>64.6545454545454</v>
       </c>
       <c r="D69" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A69) - 82.622)</f>
-        <v>13</v>
-      </c>
-      <c r="E69" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A69 - 10.37625083)</f>
+        <v>65</v>
+      </c>
+      <c r="E69" s="1" t="str">
         <f aca="false">DEC2HEX(B69,2)</f>
         <v>42</v>
       </c>
@@ -3621,14 +4390,14 @@
         <v>67</v>
       </c>
       <c r="C70" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A70 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>10</v>
+        <f aca="false">ABS((A70-5)/55)*127</f>
+        <v>66.9636363636364</v>
       </c>
       <c r="D70" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A70) - 82.622)</f>
-        <v>14</v>
-      </c>
-      <c r="E70" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A70 - 10.37625083)</f>
+        <v>68</v>
+      </c>
+      <c r="E70" s="1" t="str">
         <f aca="false">DEC2HEX(B70,2)</f>
         <v>43</v>
       </c>
@@ -3641,14 +4410,14 @@
         <v>68</v>
       </c>
       <c r="C71" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A71 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>10</v>
+        <f aca="false">ABS((A71-5)/55)*127</f>
+        <v>66.9636363636364</v>
       </c>
       <c r="D71" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A71) - 82.622)</f>
-        <v>14</v>
-      </c>
-      <c r="E71" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A71 - 10.37625083)</f>
+        <v>68</v>
+      </c>
+      <c r="E71" s="1" t="str">
         <f aca="false">DEC2HEX(B71,2)</f>
         <v>44</v>
       </c>
@@ -3661,34 +4430,34 @@
         <v>69</v>
       </c>
       <c r="C72" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A72 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>10</v>
+        <f aca="false">ABS((A72-5)/55)*127</f>
+        <v>66.9636363636364</v>
       </c>
       <c r="D72" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A72) - 82.622)</f>
-        <v>14</v>
-      </c>
-      <c r="E72" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A72 - 10.37625083)</f>
+        <v>68</v>
+      </c>
+      <c r="E72" s="1" t="str">
         <f aca="false">DEC2HEX(B72,2)</f>
         <v>45</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="n">
+      <c r="A73" s="5" t="n">
         <v>35</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>70</v>
       </c>
       <c r="C73" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A73 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>11</v>
+        <f aca="false">ABS((A73-5)/55)*127</f>
+        <v>69.2727272727273</v>
       </c>
       <c r="D73" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A73) - 82.622)</f>
-        <v>15</v>
-      </c>
-      <c r="E73" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A73 - 10.37625083)</f>
+        <v>70</v>
+      </c>
+      <c r="E73" s="1" t="str">
         <f aca="false">DEC2HEX(B73,2)</f>
         <v>46</v>
       </c>
@@ -3701,14 +4470,14 @@
         <v>71</v>
       </c>
       <c r="C74" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A74 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>11</v>
+        <f aca="false">ABS((A74-5)/55)*127</f>
+        <v>69.2727272727273</v>
       </c>
       <c r="D74" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A74) - 82.622)</f>
-        <v>15</v>
-      </c>
-      <c r="E74" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A74 - 10.37625083)</f>
+        <v>70</v>
+      </c>
+      <c r="E74" s="1" t="str">
         <f aca="false">DEC2HEX(B74,2)</f>
         <v>47</v>
       </c>
@@ -3721,14 +4490,14 @@
         <v>72</v>
       </c>
       <c r="C75" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A75 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>12</v>
+        <f aca="false">ABS((A75-5)/55)*127</f>
+        <v>71.5818181818182</v>
       </c>
       <c r="D75" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A75) - 82.622)</f>
-        <v>16</v>
-      </c>
-      <c r="E75" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A75 - 10.37625083)</f>
+        <v>72</v>
+      </c>
+      <c r="E75" s="1" t="str">
         <f aca="false">DEC2HEX(B75,2)</f>
         <v>48</v>
       </c>
@@ -3741,14 +4510,14 @@
         <v>73</v>
       </c>
       <c r="C76" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A76 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>12</v>
+        <f aca="false">ABS((A76-5)/55)*127</f>
+        <v>71.5818181818182</v>
       </c>
       <c r="D76" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A76) - 82.622)</f>
-        <v>16</v>
-      </c>
-      <c r="E76" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A76 - 10.37625083)</f>
+        <v>72</v>
+      </c>
+      <c r="E76" s="1" t="str">
         <f aca="false">DEC2HEX(B76,2)</f>
         <v>49</v>
       </c>
@@ -3761,14 +4530,14 @@
         <v>74</v>
       </c>
       <c r="C77" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A77 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>12</v>
+        <f aca="false">ABS((A77-5)/55)*127</f>
+        <v>73.8909090909091</v>
       </c>
       <c r="D77" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A77) - 82.622)</f>
-        <v>16</v>
-      </c>
-      <c r="E77" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A77 - 10.37625083)</f>
+        <v>75</v>
+      </c>
+      <c r="E77" s="1" t="str">
         <f aca="false">DEC2HEX(B77,2)</f>
         <v>4A</v>
       </c>
@@ -3781,14 +4550,14 @@
         <v>75</v>
       </c>
       <c r="C78" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A78 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>12</v>
+        <f aca="false">ABS((A78-5)/55)*127</f>
+        <v>73.8909090909091</v>
       </c>
       <c r="D78" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A78) - 82.622)</f>
-        <v>16</v>
-      </c>
-      <c r="E78" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A78 - 10.37625083)</f>
+        <v>75</v>
+      </c>
+      <c r="E78" s="1" t="str">
         <f aca="false">DEC2HEX(B78,2)</f>
         <v>4B</v>
       </c>
@@ -3801,14 +4570,14 @@
         <v>76</v>
       </c>
       <c r="C79" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A79 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>12</v>
+        <f aca="false">ABS((A79-5)/55)*127</f>
+        <v>73.8909090909091</v>
       </c>
       <c r="D79" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A79) - 82.622)</f>
-        <v>16</v>
-      </c>
-      <c r="E79" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A79 - 10.37625083)</f>
+        <v>75</v>
+      </c>
+      <c r="E79" s="1" t="str">
         <f aca="false">DEC2HEX(B79,2)</f>
         <v>4C</v>
       </c>
@@ -3821,14 +4590,14 @@
         <v>77</v>
       </c>
       <c r="C80" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A80 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>13</v>
+        <f aca="false">ABS((A80-5)/55)*127</f>
+        <v>76.2</v>
       </c>
       <c r="D80" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A80) - 82.622)</f>
-        <v>17</v>
-      </c>
-      <c r="E80" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A80 - 10.37625083)</f>
+        <v>77</v>
+      </c>
+      <c r="E80" s="1" t="str">
         <f aca="false">DEC2HEX(B80,2)</f>
         <v>4D</v>
       </c>
@@ -3841,14 +4610,14 @@
         <v>78</v>
       </c>
       <c r="C81" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A81 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>13</v>
+        <f aca="false">ABS((A81-5)/55)*127</f>
+        <v>76.2</v>
       </c>
       <c r="D81" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A81) - 82.622)</f>
-        <v>17</v>
-      </c>
-      <c r="E81" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A81 - 10.37625083)</f>
+        <v>77</v>
+      </c>
+      <c r="E81" s="1" t="str">
         <f aca="false">DEC2HEX(B81,2)</f>
         <v>4E</v>
       </c>
@@ -3861,14 +4630,14 @@
         <v>79</v>
       </c>
       <c r="C82" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A82 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>13</v>
+        <f aca="false">ABS((A82-5)/55)*127</f>
+        <v>78.5090909090909</v>
       </c>
       <c r="D82" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A82) - 82.622)</f>
-        <v>18</v>
-      </c>
-      <c r="E82" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A82 - 10.37625083)</f>
+        <v>79</v>
+      </c>
+      <c r="E82" s="1" t="str">
         <f aca="false">DEC2HEX(B82,2)</f>
         <v>4F</v>
       </c>
@@ -3881,34 +4650,34 @@
         <v>80</v>
       </c>
       <c r="C83" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A83 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>13</v>
+        <f aca="false">ABS((A83-5)/55)*127</f>
+        <v>78.5090909090909</v>
       </c>
       <c r="D83" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A83) - 82.622)</f>
-        <v>18</v>
-      </c>
-      <c r="E83" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A83 - 10.37625083)</f>
+        <v>79</v>
+      </c>
+      <c r="E83" s="1" t="str">
         <f aca="false">DEC2HEX(B83,2)</f>
         <v>50</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="n">
+      <c r="A84" s="5" t="n">
         <v>40</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>81</v>
       </c>
       <c r="C84" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A84 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>14</v>
+        <f aca="false">ABS((A84-5)/55)*127</f>
+        <v>80.8181818181818</v>
       </c>
       <c r="D84" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A84) - 82.622)</f>
-        <v>19</v>
-      </c>
-      <c r="E84" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A84 - 10.37625083)</f>
+        <v>81</v>
+      </c>
+      <c r="E84" s="1" t="str">
         <f aca="false">DEC2HEX(B84,2)</f>
         <v>51</v>
       </c>
@@ -3921,14 +4690,14 @@
         <v>82</v>
       </c>
       <c r="C85" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A85 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>14</v>
+        <f aca="false">ABS((A85-5)/55)*127</f>
+        <v>80.8181818181818</v>
       </c>
       <c r="D85" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A85) - 82.622)</f>
-        <v>19</v>
-      </c>
-      <c r="E85" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A85 - 10.37625083)</f>
+        <v>81</v>
+      </c>
+      <c r="E85" s="1" t="str">
         <f aca="false">DEC2HEX(B85,2)</f>
         <v>52</v>
       </c>
@@ -3941,14 +4710,14 @@
         <v>83</v>
       </c>
       <c r="C86" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A86 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>14</v>
+        <f aca="false">ABS((A86-5)/55)*127</f>
+        <v>80.8181818181818</v>
       </c>
       <c r="D86" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A86) - 82.622)</f>
-        <v>19</v>
-      </c>
-      <c r="E86" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A86 - 10.37625083)</f>
+        <v>81</v>
+      </c>
+      <c r="E86" s="1" t="str">
         <f aca="false">DEC2HEX(B86,2)</f>
         <v>53</v>
       </c>
@@ -3961,14 +4730,14 @@
         <v>84</v>
       </c>
       <c r="C87" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A87 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>14</v>
+        <f aca="false">ABS((A87-5)/55)*127</f>
+        <v>83.1272727272727</v>
       </c>
       <c r="D87" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A87) - 82.622)</f>
-        <v>19</v>
-      </c>
-      <c r="E87" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A87 - 10.37625083)</f>
+        <v>84</v>
+      </c>
+      <c r="E87" s="1" t="str">
         <f aca="false">DEC2HEX(B87,2)</f>
         <v>54</v>
       </c>
@@ -3981,14 +4750,14 @@
         <v>85</v>
       </c>
       <c r="C88" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A88 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>14</v>
+        <f aca="false">ABS((A88-5)/55)*127</f>
+        <v>83.1272727272727</v>
       </c>
       <c r="D88" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A88) - 82.622)</f>
-        <v>19</v>
-      </c>
-      <c r="E88" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A88 - 10.37625083)</f>
+        <v>84</v>
+      </c>
+      <c r="E88" s="1" t="str">
         <f aca="false">DEC2HEX(B88,2)</f>
         <v>55</v>
       </c>
@@ -4001,14 +4770,14 @@
         <v>86</v>
       </c>
       <c r="C89" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A89 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>15</v>
+        <f aca="false">ABS((A89-5)/55)*127</f>
+        <v>85.4363636363636</v>
       </c>
       <c r="D89" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A89) - 82.622)</f>
-        <v>20</v>
-      </c>
-      <c r="E89" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A89 - 10.37625083)</f>
+        <v>86</v>
+      </c>
+      <c r="E89" s="1" t="str">
         <f aca="false">DEC2HEX(B89,2)</f>
         <v>56</v>
       </c>
@@ -4021,14 +4790,14 @@
         <v>87</v>
       </c>
       <c r="C90" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A90 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>15</v>
+        <f aca="false">ABS((A90-5)/55)*127</f>
+        <v>85.4363636363636</v>
       </c>
       <c r="D90" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A90) - 82.622)</f>
-        <v>20</v>
-      </c>
-      <c r="E90" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A90 - 10.37625083)</f>
+        <v>86</v>
+      </c>
+      <c r="E90" s="1" t="str">
         <f aca="false">DEC2HEX(B90,2)</f>
         <v>57</v>
       </c>
@@ -4041,14 +4810,14 @@
         <v>88</v>
       </c>
       <c r="C91" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A91 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>15</v>
+        <f aca="false">ABS((A91-5)/55)*127</f>
+        <v>87.7454545454546</v>
       </c>
       <c r="D91" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A91) - 82.622)</f>
-        <v>21</v>
-      </c>
-      <c r="E91" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A91 - 10.37625083)</f>
+        <v>88</v>
+      </c>
+      <c r="E91" s="1" t="str">
         <f aca="false">DEC2HEX(B91,2)</f>
         <v>58</v>
       </c>
@@ -4061,14 +4830,14 @@
         <v>89</v>
       </c>
       <c r="C92" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A92 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>15</v>
+        <f aca="false">ABS((A92-5)/55)*127</f>
+        <v>87.7454545454546</v>
       </c>
       <c r="D92" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A92) - 82.622)</f>
-        <v>21</v>
-      </c>
-      <c r="E92" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A92 - 10.37625083)</f>
+        <v>88</v>
+      </c>
+      <c r="E92" s="1" t="str">
         <f aca="false">DEC2HEX(B92,2)</f>
         <v>59</v>
       </c>
@@ -4081,14 +4850,14 @@
         <v>90</v>
       </c>
       <c r="C93" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A93 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>15</v>
+        <f aca="false">ABS((A93-5)/55)*127</f>
+        <v>87.7454545454546</v>
       </c>
       <c r="D93" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A93) - 82.622)</f>
-        <v>21</v>
-      </c>
-      <c r="E93" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A93 - 10.37625083)</f>
+        <v>88</v>
+      </c>
+      <c r="E93" s="1" t="str">
         <f aca="false">DEC2HEX(B93,2)</f>
         <v>5A</v>
       </c>
@@ -4101,14 +4870,14 @@
         <v>91</v>
       </c>
       <c r="C94" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A94 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>16</v>
+        <f aca="false">ABS((A94-5)/55)*127</f>
+        <v>90.0545454545455</v>
       </c>
       <c r="D94" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A94) - 82.622)</f>
-        <v>21</v>
-      </c>
-      <c r="E94" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A94 - 10.37625083)</f>
+        <v>91</v>
+      </c>
+      <c r="E94" s="1" t="str">
         <f aca="false">DEC2HEX(B94,2)</f>
         <v>5B</v>
       </c>
@@ -4121,34 +4890,34 @@
         <v>92</v>
       </c>
       <c r="C95" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A95 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>16</v>
+        <f aca="false">ABS((A95-5)/55)*127</f>
+        <v>90.0545454545455</v>
       </c>
       <c r="D95" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A95) - 82.622)</f>
-        <v>21</v>
-      </c>
-      <c r="E95" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A95 - 10.37625083)</f>
+        <v>91</v>
+      </c>
+      <c r="E95" s="1" t="str">
         <f aca="false">DEC2HEX(B95,2)</f>
         <v>5C</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4" t="n">
+      <c r="A96" s="5" t="n">
         <v>45</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>93</v>
       </c>
       <c r="C96" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A96 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>16</v>
+        <f aca="false">ABS((A96-5)/55)*127</f>
+        <v>92.3636363636364</v>
       </c>
       <c r="D96" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A96) - 82.622)</f>
-        <v>22</v>
-      </c>
-      <c r="E96" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A96 - 10.37625083)</f>
+        <v>93</v>
+      </c>
+      <c r="E96" s="1" t="str">
         <f aca="false">DEC2HEX(B96,2)</f>
         <v>5D</v>
       </c>
@@ -4161,14 +4930,14 @@
         <v>94</v>
       </c>
       <c r="C97" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A97 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>16</v>
+        <f aca="false">ABS((A97-5)/55)*127</f>
+        <v>92.3636363636364</v>
       </c>
       <c r="D97" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A97) - 82.622)</f>
-        <v>22</v>
-      </c>
-      <c r="E97" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A97 - 10.37625083)</f>
+        <v>93</v>
+      </c>
+      <c r="E97" s="1" t="str">
         <f aca="false">DEC2HEX(B97,2)</f>
         <v>5E</v>
       </c>
@@ -4181,14 +4950,14 @@
         <v>95</v>
       </c>
       <c r="C98" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A98 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>17</v>
+        <f aca="false">ABS((A98-5)/55)*127</f>
+        <v>94.6727272727273</v>
       </c>
       <c r="D98" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A98) - 82.622)</f>
-        <v>22</v>
-      </c>
-      <c r="E98" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A98 - 10.37625083)</f>
+        <v>95</v>
+      </c>
+      <c r="E98" s="1" t="str">
         <f aca="false">DEC2HEX(B98,2)</f>
         <v>5F</v>
       </c>
@@ -4201,14 +4970,14 @@
         <v>96</v>
       </c>
       <c r="C99" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A99 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>17</v>
+        <f aca="false">ABS((A99-5)/55)*127</f>
+        <v>94.6727272727273</v>
       </c>
       <c r="D99" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A99) - 82.622)</f>
-        <v>22</v>
-      </c>
-      <c r="E99" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A99 - 10.37625083)</f>
+        <v>95</v>
+      </c>
+      <c r="E99" s="1" t="str">
         <f aca="false">DEC2HEX(B99,2)</f>
         <v>60</v>
       </c>
@@ -4221,14 +4990,14 @@
         <v>97</v>
       </c>
       <c r="C100" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A100 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>17</v>
+        <f aca="false">ABS((A100-5)/55)*127</f>
+        <v>96.9818181818182</v>
       </c>
       <c r="D100" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A100) - 82.622)</f>
-        <v>23</v>
-      </c>
-      <c r="E100" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A100 - 10.37625083)</f>
+        <v>98</v>
+      </c>
+      <c r="E100" s="1" t="str">
         <f aca="false">DEC2HEX(B100,2)</f>
         <v>61</v>
       </c>
@@ -4241,14 +5010,14 @@
         <v>98</v>
       </c>
       <c r="C101" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A101 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>17</v>
+        <f aca="false">ABS((A101-5)/55)*127</f>
+        <v>96.9818181818182</v>
       </c>
       <c r="D101" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A101) - 82.622)</f>
-        <v>23</v>
-      </c>
-      <c r="E101" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A101 - 10.37625083)</f>
+        <v>98</v>
+      </c>
+      <c r="E101" s="1" t="str">
         <f aca="false">DEC2HEX(B101,2)</f>
         <v>62</v>
       </c>
@@ -4261,14 +5030,14 @@
         <v>99</v>
       </c>
       <c r="C102" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A102 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>17</v>
+        <f aca="false">ABS((A102-5)/55)*127</f>
+        <v>96.9818181818182</v>
       </c>
       <c r="D102" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A102) - 82.622)</f>
-        <v>23</v>
-      </c>
-      <c r="E102" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A102 - 10.37625083)</f>
+        <v>98</v>
+      </c>
+      <c r="E102" s="1" t="str">
         <f aca="false">DEC2HEX(B102,2)</f>
         <v>63</v>
       </c>
@@ -4281,14 +5050,14 @@
         <v>100</v>
       </c>
       <c r="C103" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A103 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>17</v>
+        <f aca="false">ABS((A103-5)/55)*127</f>
+        <v>99.2909090909091</v>
       </c>
       <c r="D103" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A103) - 82.622)</f>
-        <v>24</v>
-      </c>
-      <c r="E103" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A103 - 10.37625083)</f>
+        <v>100</v>
+      </c>
+      <c r="E103" s="1" t="str">
         <f aca="false">DEC2HEX(B103,2)</f>
         <v>64</v>
       </c>
@@ -4301,14 +5070,14 @@
         <v>101</v>
       </c>
       <c r="C104" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A104 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>17</v>
+        <f aca="false">ABS((A104-5)/55)*127</f>
+        <v>99.2909090909091</v>
       </c>
       <c r="D104" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A104) - 82.622)</f>
-        <v>24</v>
-      </c>
-      <c r="E104" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A104 - 10.37625083)</f>
+        <v>100</v>
+      </c>
+      <c r="E104" s="1" t="str">
         <f aca="false">DEC2HEX(B104,2)</f>
         <v>65</v>
       </c>
@@ -4321,14 +5090,14 @@
         <v>102</v>
       </c>
       <c r="C105" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A105 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>18</v>
+        <f aca="false">ABS((A105-5)/55)*127</f>
+        <v>101.6</v>
       </c>
       <c r="D105" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A105) - 82.622)</f>
-        <v>24</v>
-      </c>
-      <c r="E105" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A105 - 10.37625083)</f>
+        <v>102</v>
+      </c>
+      <c r="E105" s="1" t="str">
         <f aca="false">DEC2HEX(B105,2)</f>
         <v>66</v>
       </c>
@@ -4341,34 +5110,34 @@
         <v>103</v>
       </c>
       <c r="C106" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A106 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>18</v>
+        <f aca="false">ABS((A106-5)/55)*127</f>
+        <v>101.6</v>
       </c>
       <c r="D106" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A106) - 82.622)</f>
-        <v>24</v>
-      </c>
-      <c r="E106" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A106 - 10.37625083)</f>
+        <v>102</v>
+      </c>
+      <c r="E106" s="1" t="str">
         <f aca="false">DEC2HEX(B106,2)</f>
         <v>67</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="4" t="n">
+      <c r="A107" s="5" t="n">
         <v>50</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>104</v>
       </c>
       <c r="C107" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A107 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>18</v>
+        <f aca="false">ABS((A107-5)/55)*127</f>
+        <v>103.909090909091</v>
       </c>
       <c r="D107" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A107) - 82.622)</f>
-        <v>25</v>
-      </c>
-      <c r="E107" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A107 - 10.37625083)</f>
+        <v>105</v>
+      </c>
+      <c r="E107" s="1" t="str">
         <f aca="false">DEC2HEX(B107,2)</f>
         <v>68</v>
       </c>
@@ -4381,14 +5150,14 @@
         <v>105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A108 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>18</v>
+        <f aca="false">ABS((A108-5)/55)*127</f>
+        <v>103.909090909091</v>
       </c>
       <c r="D108" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A108) - 82.622)</f>
-        <v>25</v>
-      </c>
-      <c r="E108" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A108 - 10.37625083)</f>
+        <v>105</v>
+      </c>
+      <c r="E108" s="1" t="str">
         <f aca="false">DEC2HEX(B108,2)</f>
         <v>69</v>
       </c>
@@ -4401,14 +5170,14 @@
         <v>106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A109 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>18</v>
+        <f aca="false">ABS((A109-5)/55)*127</f>
+        <v>103.909090909091</v>
       </c>
       <c r="D109" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A109) - 82.622)</f>
-        <v>25</v>
-      </c>
-      <c r="E109" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A109 - 10.37625083)</f>
+        <v>105</v>
+      </c>
+      <c r="E109" s="1" t="str">
         <f aca="false">DEC2HEX(B109,2)</f>
         <v>6A</v>
       </c>
@@ -4421,14 +5190,14 @@
         <v>107</v>
       </c>
       <c r="C110" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A110 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>19</v>
+        <f aca="false">ABS((A110-5)/55)*127</f>
+        <v>106.218181818182</v>
       </c>
       <c r="D110" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A110) - 82.622)</f>
-        <v>25</v>
-      </c>
-      <c r="E110" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A110 - 10.37625083)</f>
+        <v>107</v>
+      </c>
+      <c r="E110" s="1" t="str">
         <f aca="false">DEC2HEX(B110,2)</f>
         <v>6B</v>
       </c>
@@ -4441,14 +5210,14 @@
         <v>108</v>
       </c>
       <c r="C111" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A111 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>19</v>
+        <f aca="false">ABS((A111-5)/55)*127</f>
+        <v>106.218181818182</v>
       </c>
       <c r="D111" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A111) - 82.622)</f>
-        <v>25</v>
-      </c>
-      <c r="E111" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A111 - 10.37625083)</f>
+        <v>107</v>
+      </c>
+      <c r="E111" s="1" t="str">
         <f aca="false">DEC2HEX(B111,2)</f>
         <v>6C</v>
       </c>
@@ -4461,14 +5230,14 @@
         <v>109</v>
       </c>
       <c r="C112" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A112 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>19</v>
+        <f aca="false">ABS((A112-5)/55)*127</f>
+        <v>108.527272727273</v>
       </c>
       <c r="D112" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A112) - 82.622)</f>
-        <v>26</v>
-      </c>
-      <c r="E112" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A112 - 10.37625083)</f>
+        <v>109</v>
+      </c>
+      <c r="E112" s="1" t="str">
         <f aca="false">DEC2HEX(B112,2)</f>
         <v>6D</v>
       </c>
@@ -4481,14 +5250,14 @@
         <v>110</v>
       </c>
       <c r="C113" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A113 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>19</v>
+        <f aca="false">ABS((A113-5)/55)*127</f>
+        <v>108.527272727273</v>
       </c>
       <c r="D113" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A113) - 82.622)</f>
-        <v>26</v>
-      </c>
-      <c r="E113" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A113 - 10.37625083)</f>
+        <v>109</v>
+      </c>
+      <c r="E113" s="1" t="str">
         <f aca="false">DEC2HEX(B113,2)</f>
         <v>6E</v>
       </c>
@@ -4501,14 +5270,14 @@
         <v>111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A114 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>19</v>
+        <f aca="false">ABS((A114-5)/55)*127</f>
+        <v>110.836363636364</v>
       </c>
       <c r="D114" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A114) - 82.622)</f>
-        <v>26</v>
-      </c>
-      <c r="E114" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A114 - 10.37625083)</f>
+        <v>111</v>
+      </c>
+      <c r="E114" s="1" t="str">
         <f aca="false">DEC2HEX(B114,2)</f>
         <v>6F</v>
       </c>
@@ -4521,14 +5290,14 @@
         <v>112</v>
       </c>
       <c r="C115" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A115 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>19</v>
+        <f aca="false">ABS((A115-5)/55)*127</f>
+        <v>110.836363636364</v>
       </c>
       <c r="D115" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A115) - 82.622)</f>
-        <v>26</v>
-      </c>
-      <c r="E115" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A115 - 10.37625083)</f>
+        <v>111</v>
+      </c>
+      <c r="E115" s="1" t="str">
         <f aca="false">DEC2HEX(B115,2)</f>
         <v>70</v>
       </c>
@@ -4541,14 +5310,14 @@
         <v>113</v>
       </c>
       <c r="C116" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A116 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>19</v>
+        <f aca="false">ABS((A116-5)/55)*127</f>
+        <v>110.836363636364</v>
       </c>
       <c r="D116" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A116) - 82.622)</f>
-        <v>26</v>
-      </c>
-      <c r="E116" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A116 - 10.37625083)</f>
+        <v>111</v>
+      </c>
+      <c r="E116" s="1" t="str">
         <f aca="false">DEC2HEX(B116,2)</f>
         <v>71</v>
       </c>
@@ -4561,14 +5330,14 @@
         <v>114</v>
       </c>
       <c r="C117" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A117 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>20</v>
+        <f aca="false">ABS((A117-5)/55)*127</f>
+        <v>113.145454545455</v>
       </c>
       <c r="D117" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A117) - 82.622)</f>
-        <v>27</v>
-      </c>
-      <c r="E117" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A117 - 10.37625083)</f>
+        <v>114</v>
+      </c>
+      <c r="E117" s="1" t="str">
         <f aca="false">DEC2HEX(B117,2)</f>
         <v>72</v>
       </c>
@@ -4581,34 +5350,34 @@
         <v>115</v>
       </c>
       <c r="C118" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A118 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>20</v>
+        <f aca="false">ABS((A118-5)/55)*127</f>
+        <v>113.145454545455</v>
       </c>
       <c r="D118" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A118) - 82.622)</f>
-        <v>27</v>
-      </c>
-      <c r="E118" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A118 - 10.37625083)</f>
+        <v>114</v>
+      </c>
+      <c r="E118" s="1" t="str">
         <f aca="false">DEC2HEX(B118,2)</f>
         <v>73</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4" t="n">
+      <c r="A119" s="5" t="n">
         <v>55</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>116</v>
       </c>
       <c r="C119" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A119 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>20</v>
+        <f aca="false">ABS((A119-5)/55)*127</f>
+        <v>115.454545454545</v>
       </c>
       <c r="D119" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A119) - 82.622)</f>
-        <v>27</v>
-      </c>
-      <c r="E119" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A119 - 10.37625083)</f>
+        <v>116</v>
+      </c>
+      <c r="E119" s="1" t="str">
         <f aca="false">DEC2HEX(B119,2)</f>
         <v>74</v>
       </c>
@@ -4621,14 +5390,14 @@
         <v>117</v>
       </c>
       <c r="C120" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A120 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>20</v>
+        <f aca="false">ABS((A120-5)/55)*127</f>
+        <v>115.454545454545</v>
       </c>
       <c r="D120" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A120) - 82.622)</f>
-        <v>27</v>
-      </c>
-      <c r="E120" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A120 - 10.37625083)</f>
+        <v>116</v>
+      </c>
+      <c r="E120" s="1" t="str">
         <f aca="false">DEC2HEX(B120,2)</f>
         <v>75</v>
       </c>
@@ -4641,14 +5410,14 @@
         <v>118</v>
       </c>
       <c r="C121" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A121 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>21</v>
+        <f aca="false">ABS((A121-5)/55)*127</f>
+        <v>117.763636363636</v>
       </c>
       <c r="D121" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A121) - 82.622)</f>
-        <v>28</v>
-      </c>
-      <c r="E121" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A121 - 10.37625083)</f>
+        <v>118</v>
+      </c>
+      <c r="E121" s="1" t="str">
         <f aca="false">DEC2HEX(B121,2)</f>
         <v>76</v>
       </c>
@@ -4661,14 +5430,14 @@
         <v>119</v>
       </c>
       <c r="C122" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A122 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>21</v>
+        <f aca="false">ABS((A122-5)/55)*127</f>
+        <v>117.763636363636</v>
       </c>
       <c r="D122" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A122) - 82.622)</f>
-        <v>28</v>
-      </c>
-      <c r="E122" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A122 - 10.37625083)</f>
+        <v>118</v>
+      </c>
+      <c r="E122" s="1" t="str">
         <f aca="false">DEC2HEX(B122,2)</f>
         <v>77</v>
       </c>
@@ -4681,14 +5450,14 @@
         <v>120</v>
       </c>
       <c r="C123" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A123 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>21</v>
+        <f aca="false">ABS((A123-5)/55)*127</f>
+        <v>117.763636363636</v>
       </c>
       <c r="D123" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A123) - 82.622)</f>
-        <v>28</v>
-      </c>
-      <c r="E123" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A123 - 10.37625083)</f>
+        <v>118</v>
+      </c>
+      <c r="E123" s="1" t="str">
         <f aca="false">DEC2HEX(B123,2)</f>
         <v>78</v>
       </c>
@@ -4701,14 +5470,14 @@
         <v>121</v>
       </c>
       <c r="C124" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A124 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>21</v>
+        <f aca="false">ABS((A124-5)/55)*127</f>
+        <v>120.072727272727</v>
       </c>
       <c r="D124" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A124) - 82.622)</f>
-        <v>28</v>
-      </c>
-      <c r="E124" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A124 - 10.37625083)</f>
+        <v>121</v>
+      </c>
+      <c r="E124" s="1" t="str">
         <f aca="false">DEC2HEX(B124,2)</f>
         <v>79</v>
       </c>
@@ -4721,14 +5490,14 @@
         <v>122</v>
       </c>
       <c r="C125" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A125 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>21</v>
+        <f aca="false">ABS((A125-5)/55)*127</f>
+        <v>120.072727272727</v>
       </c>
       <c r="D125" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A125) - 82.622)</f>
-        <v>28</v>
-      </c>
-      <c r="E125" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A125 - 10.37625083)</f>
+        <v>121</v>
+      </c>
+      <c r="E125" s="1" t="str">
         <f aca="false">DEC2HEX(B125,2)</f>
         <v>7A</v>
       </c>
@@ -4741,14 +5510,14 @@
         <v>123</v>
       </c>
       <c r="C126" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A126 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>21</v>
+        <f aca="false">ABS((A126-5)/55)*127</f>
+        <v>122.381818181818</v>
       </c>
       <c r="D126" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A126) - 82.622)</f>
-        <v>29</v>
-      </c>
-      <c r="E126" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A126 - 10.37625083)</f>
+        <v>123</v>
+      </c>
+      <c r="E126" s="1" t="str">
         <f aca="false">DEC2HEX(B126,2)</f>
         <v>7B</v>
       </c>
@@ -4761,14 +5530,14 @@
         <v>124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A127 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>21</v>
+        <f aca="false">ABS((A127-5)/55)*127</f>
+        <v>122.381818181818</v>
       </c>
       <c r="D127" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A127) - 82.622)</f>
-        <v>29</v>
-      </c>
-      <c r="E127" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A127 - 10.37625083)</f>
+        <v>123</v>
+      </c>
+      <c r="E127" s="1" t="str">
         <f aca="false">DEC2HEX(B127,2)</f>
         <v>7C</v>
       </c>
@@ -4781,14 +5550,14 @@
         <v>125</v>
       </c>
       <c r="C128" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A128 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>22</v>
+        <f aca="false">ABS((A128-5)/55)*127</f>
+        <v>124.690909090909</v>
       </c>
       <c r="D128" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A128) - 82.622)</f>
-        <v>29</v>
-      </c>
-      <c r="E128" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A128 - 10.37625083)</f>
+        <v>125</v>
+      </c>
+      <c r="E128" s="1" t="str">
         <f aca="false">DEC2HEX(B128,2)</f>
         <v>7D</v>
       </c>
@@ -4801,34 +5570,34 @@
         <v>126</v>
       </c>
       <c r="C129" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A129 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>22</v>
+        <f aca="false">ABS((A129-5)/55)*127</f>
+        <v>124.690909090909</v>
       </c>
       <c r="D129" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A129) - 82.622)</f>
-        <v>29</v>
-      </c>
-      <c r="E129" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A129 - 10.37625083)</f>
+        <v>125</v>
+      </c>
+      <c r="E129" s="1" t="str">
         <f aca="false">DEC2HEX(B129,2)</f>
         <v>7E</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="4" t="n">
+      <c r="A130" s="5" t="n">
         <v>60</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>127</v>
       </c>
       <c r="C130" s="1" t="n">
-        <f aca="false">INT(127*((4608 * LOG10(A130 / 4) / LOG10(2)) - 10699) / 41314)</f>
-        <v>22</v>
+        <f aca="false">ABS((A130-5)/55)*127</f>
+        <v>127</v>
       </c>
       <c r="D130" s="1" t="n">
-        <f aca="false">INT(27.58 * LN(A130) - 82.622)</f>
-        <v>30</v>
-      </c>
-      <c r="E130" s="0" t="str">
+        <f aca="false"> INT(2.308693 * A130 - 10.37625083)</f>
+        <v>128</v>
+      </c>
+      <c r="E130" s="1" t="str">
         <f aca="false">DEC2HEX(B130,2)</f>
         <v>7F</v>
       </c>
